--- a/Session_15_Additional_Exercise.xlsx
+++ b/Session_15_Additional_Exercise.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saraswathy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saraswathy\Documents\GitHub\Statistics_V\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Prob1thru 12" sheetId="2" r:id="rId1"/>
     <sheet name="Prob_7" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -216,6 +215,49 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523202</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2672" r="-1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="909302" y="19291320"/>
+          <a:ext cx="3581399" cy="5400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
@@ -234,7 +276,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -278,7 +320,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -305,14 +347,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>99061</xdr:rowOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523200</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>99944</xdr:rowOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -322,7 +364,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -335,7 +377,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20215861"/>
+          <a:off x="0" y="23774401"/>
           <a:ext cx="5400000" cy="4207123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -366,7 +408,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -410,7 +452,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -701,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M121" sqref="M121"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
